--- a/sources/Loma_data.xlsx
+++ b/sources/Loma_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="564">
   <si>
     <t>language_no</t>
   </si>
@@ -1635,43 +1635,85 @@
     <t>POSS_HEAD</t>
   </si>
   <si>
-    <t>ma_S</t>
-  </si>
-  <si>
-    <t>S_ba</t>
-  </si>
-  <si>
     <t>TR</t>
   </si>
   <si>
-    <t>S_ga</t>
-  </si>
-  <si>
-    <t>S_ya</t>
-  </si>
-  <si>
-    <t>S_ma</t>
-  </si>
-  <si>
-    <t>S_su</t>
-  </si>
-  <si>
-    <t>S_zu</t>
-  </si>
-  <si>
-    <t>ya_S</t>
-  </si>
-  <si>
-    <t>be_S</t>
-  </si>
-  <si>
-    <t>S_be</t>
-  </si>
-  <si>
-    <t>S_polu</t>
-  </si>
-  <si>
-    <t>S_ta</t>
+    <t>*</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>SBJ</t>
+  </si>
+  <si>
+    <t>be_SBJ</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>ma_SBJ</t>
+  </si>
+  <si>
+    <t>POSS</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>polu</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>SBJ_ba</t>
+  </si>
+  <si>
+    <t>SBJ_ga</t>
+  </si>
+  <si>
+    <t>SBJ_ya</t>
+  </si>
+  <si>
+    <t>SBJ_ma</t>
+  </si>
+  <si>
+    <t>SBJ_su</t>
+  </si>
+  <si>
+    <t>SBJ_zu</t>
+  </si>
+  <si>
+    <t>SBJ_be</t>
+  </si>
+  <si>
+    <t>SBJ_polu</t>
+  </si>
+  <si>
+    <t>SBJ_ta</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>ya_SBJ</t>
   </si>
 </sst>
 </file>
@@ -2061,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2171,9 +2213,15 @@
         <v>22</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="5"/>
+      <c r="I2" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L2" s="10" t="s">
         <v>536</v>
       </c>
@@ -2208,11 +2256,17 @@
         <v>26</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="5"/>
+      <c r="I3" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L3" s="12" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2245,11 +2299,17 @@
         <v>30</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L4" s="12" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2282,11 +2342,17 @@
         <v>34</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L5" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2319,9 +2385,15 @@
         <v>38</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="5"/>
+      <c r="I6" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L6" s="12"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2354,11 +2426,17 @@
         <v>42</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5"/>
+      <c r="I7" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L7" s="12" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2391,11 +2469,17 @@
         <v>46</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L8" s="12" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -2428,11 +2512,17 @@
         <v>50</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="5"/>
+      <c r="I9" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L9" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -2465,11 +2555,17 @@
         <v>54</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="5"/>
+      <c r="I10" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L10" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2502,9 +2598,15 @@
         <v>58</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="5"/>
+      <c r="I11" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L11" s="12"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -2537,11 +2639,17 @@
         <v>62</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="5"/>
+      <c r="I12" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L12" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -2574,9 +2682,15 @@
         <v>66</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="5"/>
+      <c r="I13" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L13" s="12"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -2609,9 +2723,15 @@
         <v>70</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5"/>
+      <c r="I14" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L14" s="12"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -2644,9 +2764,15 @@
         <v>74</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
+      <c r="I15" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L15" s="12"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -2679,11 +2805,17 @@
         <v>78</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="5"/>
+      <c r="I16" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L16" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -2716,11 +2848,17 @@
         <v>82</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="5"/>
+      <c r="I17" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L17" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -2753,11 +2891,17 @@
         <v>86</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="5"/>
+      <c r="I18" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L18" s="12" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -2790,11 +2934,17 @@
         <v>90</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="5"/>
+      <c r="I19" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L19" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -2827,11 +2977,17 @@
         <v>94</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
+      <c r="I20" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L20" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2864,11 +3020,17 @@
         <v>98</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="5"/>
+      <c r="I21" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L21" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -2901,9 +3063,15 @@
         <v>102</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
+      <c r="I22" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L22" s="12"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -2936,11 +3104,17 @@
         <v>106</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="5"/>
+      <c r="I23" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L23" s="12" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -2973,11 +3147,17 @@
         <v>110</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="5"/>
+      <c r="I24" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L24" s="12" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3010,9 +3190,15 @@
         <v>114</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="5"/>
+      <c r="I25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L25" s="12"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3045,11 +3231,17 @@
         <v>118</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
+      <c r="I26" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L26" s="13" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3082,11 +3274,17 @@
         <v>122</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="5"/>
+      <c r="I27" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L27" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3119,11 +3317,17 @@
         <v>126</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="5"/>
+      <c r="I28" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L28" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3156,11 +3360,17 @@
         <v>130</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="5"/>
+      <c r="I29" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L29" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3193,11 +3403,17 @@
         <v>134</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="5"/>
+      <c r="I30" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L30" s="12" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -3230,9 +3446,15 @@
         <v>138</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="5"/>
+      <c r="I31" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L31" s="12"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3265,11 +3487,17 @@
         <v>142</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="5"/>
+      <c r="I32" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L32" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -3302,11 +3530,17 @@
         <v>146</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="5"/>
+      <c r="I33" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L33" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -3339,11 +3573,17 @@
         <v>150</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="5"/>
+      <c r="I34" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L34" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -3376,11 +3616,17 @@
         <v>154</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="5"/>
+      <c r="I35" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L35" s="14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -3413,11 +3659,17 @@
         <v>158</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="5"/>
+      <c r="I36" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L36" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -3450,11 +3702,17 @@
         <v>162</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="5"/>
+      <c r="I37" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L37" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -3487,11 +3745,17 @@
         <v>166</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="5"/>
+      <c r="I38" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L38" s="12" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -3524,11 +3788,17 @@
         <v>169</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="5"/>
+      <c r="I39" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L39" s="12" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -3561,11 +3831,17 @@
         <v>173</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="5"/>
+      <c r="I40" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L40" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -3598,11 +3874,17 @@
         <v>177</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="5"/>
+      <c r="I41" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L41" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -3635,11 +3917,17 @@
         <v>181</v>
       </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="5"/>
+      <c r="I42" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L42" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -3672,11 +3960,17 @@
         <v>185</v>
       </c>
       <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="5"/>
+      <c r="I43" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L43" s="12" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -3709,11 +4003,17 @@
         <v>189</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="5"/>
+      <c r="I44" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L44" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -3746,11 +4046,17 @@
         <v>193</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="5"/>
+      <c r="I45" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L45" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -3783,9 +4089,15 @@
         <v>197</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="5"/>
+      <c r="I46" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L46" s="12"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -3818,11 +4130,17 @@
         <v>201</v>
       </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="5"/>
+      <c r="I47" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L47" s="12" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -3855,11 +4173,17 @@
         <v>205</v>
       </c>
       <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="5"/>
+      <c r="I48" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L48" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -3892,9 +4216,15 @@
         <v>209</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="5"/>
+      <c r="I49" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L49" s="14"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -3927,11 +4257,17 @@
         <v>213</v>
       </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="5"/>
+      <c r="I50" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L50" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -3964,11 +4300,17 @@
         <v>217</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="5"/>
+      <c r="I51" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L51" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -4001,9 +4343,15 @@
         <v>221</v>
       </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="5"/>
+      <c r="I52" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L52" s="12"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -4036,11 +4384,17 @@
         <v>225</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="5"/>
+      <c r="I53" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L53" s="12" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -4073,11 +4427,17 @@
         <v>229</v>
       </c>
       <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="5"/>
+      <c r="I54" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L54" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -4110,11 +4470,17 @@
         <v>233</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="5"/>
+      <c r="I55" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L55" s="12" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -4147,11 +4513,17 @@
         <v>237</v>
       </c>
       <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="5"/>
+      <c r="I56" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L56" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -4184,9 +4556,15 @@
         <v>241</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="5"/>
+      <c r="I57" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L57" s="12"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -4219,11 +4597,17 @@
         <v>245</v>
       </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="5"/>
+      <c r="I58" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L58" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -4256,11 +4640,17 @@
         <v>249</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="5"/>
+      <c r="I59" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L59" s="12" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -4293,11 +4683,17 @@
         <v>253</v>
       </c>
       <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="5"/>
+      <c r="I60" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L60" s="12" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -4330,9 +4726,15 @@
         <v>257</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="5"/>
+      <c r="I61" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L61" s="12"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -4365,11 +4767,17 @@
         <v>261</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="13" t="s">
-        <v>545</v>
+      <c r="I62" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>563</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -4402,11 +4810,17 @@
         <v>265</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="5"/>
+      <c r="I63" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L63" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -4439,11 +4853,17 @@
         <v>269</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="5"/>
+      <c r="I64" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L64" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -4476,9 +4896,15 @@
         <v>273</v>
       </c>
       <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="5"/>
+      <c r="I65" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L65" s="12"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -4511,11 +4937,17 @@
         <v>277</v>
       </c>
       <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="5"/>
+      <c r="I66" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L66" s="12" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -4548,11 +4980,17 @@
         <v>281</v>
       </c>
       <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="5"/>
+      <c r="I67" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L67" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -4585,9 +5023,15 @@
         <v>285</v>
       </c>
       <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="5"/>
+      <c r="I68" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L68" s="14"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
@@ -4620,11 +5064,17 @@
         <v>289</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="5"/>
+      <c r="I69" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L69" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -4657,11 +5107,17 @@
         <v>293</v>
       </c>
       <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="5"/>
+      <c r="I70" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L70" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -4694,11 +5150,17 @@
         <v>297</v>
       </c>
       <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="5"/>
+      <c r="I71" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L71" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -4731,11 +5193,17 @@
         <v>301</v>
       </c>
       <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="5"/>
+      <c r="I72" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L72" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -4768,11 +5236,17 @@
         <v>305</v>
       </c>
       <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="5"/>
+      <c r="I73" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L73" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -4805,9 +5279,15 @@
         <v>309</v>
       </c>
       <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="5"/>
+      <c r="I74" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L74" s="12"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -4840,9 +5320,15 @@
         <v>313</v>
       </c>
       <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="5"/>
+      <c r="I75" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L75" s="12"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -4875,9 +5361,15 @@
         <v>317</v>
       </c>
       <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="5"/>
+      <c r="I76" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L76" s="12"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -4910,11 +5402,17 @@
         <v>321</v>
       </c>
       <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="5"/>
+      <c r="I77" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L77" s="12" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -4947,11 +5445,17 @@
         <v>325</v>
       </c>
       <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="5"/>
+      <c r="I78" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L78" s="12" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -4984,11 +5488,17 @@
         <v>329</v>
       </c>
       <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="5"/>
+      <c r="I79" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L79" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -5021,11 +5531,17 @@
         <v>333</v>
       </c>
       <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="5"/>
+      <c r="I80" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L80" s="12" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -5058,11 +5574,17 @@
         <v>337</v>
       </c>
       <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="5"/>
+      <c r="I81" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L81" s="12" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -5095,11 +5617,17 @@
         <v>341</v>
       </c>
       <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="5"/>
+      <c r="I82" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L82" s="12" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -5132,9 +5660,15 @@
         <v>345</v>
       </c>
       <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="5"/>
+      <c r="I83" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L83" s="12"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -5167,9 +5701,15 @@
         <v>349</v>
       </c>
       <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="5"/>
+      <c r="I84" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L84" s="14"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -5202,11 +5742,17 @@
         <v>353</v>
       </c>
       <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="5"/>
+      <c r="I85" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L85" s="12" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -5239,11 +5785,17 @@
         <v>357</v>
       </c>
       <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="5"/>
+      <c r="I86" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L86" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -5276,11 +5828,17 @@
         <v>361</v>
       </c>
       <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="5"/>
+      <c r="I87" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L87" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -5313,9 +5871,15 @@
         <v>365</v>
       </c>
       <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="5"/>
+      <c r="I88" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L88" s="12"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -5348,9 +5912,15 @@
         <v>369</v>
       </c>
       <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="5"/>
+      <c r="I89" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L89" s="14"/>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -5383,9 +5953,15 @@
         <v>373</v>
       </c>
       <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="5"/>
+      <c r="I90" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L90" s="14"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -5418,9 +5994,15 @@
         <v>377</v>
       </c>
       <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="5"/>
+      <c r="I91" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L91" s="12"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -5453,11 +6035,17 @@
         <v>381</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="5"/>
+      <c r="I92" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L92" s="12" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
@@ -5490,11 +6078,17 @@
         <v>385</v>
       </c>
       <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="5"/>
+      <c r="I93" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L93" s="14" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
@@ -5527,11 +6121,17 @@
         <v>389</v>
       </c>
       <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="5"/>
+      <c r="I94" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L94" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -5564,11 +6164,17 @@
         <v>393</v>
       </c>
       <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="5"/>
+      <c r="I95" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L95" s="12" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -5601,11 +6207,17 @@
         <v>397</v>
       </c>
       <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="5"/>
+      <c r="I96" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L96" s="13" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -5638,11 +6250,17 @@
         <v>401</v>
       </c>
       <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="5"/>
+      <c r="I97" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L97" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -5675,9 +6293,15 @@
         <v>405</v>
       </c>
       <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="5"/>
+      <c r="I98" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L98" s="12"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -5710,9 +6334,15 @@
         <v>409</v>
       </c>
       <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="5"/>
+      <c r="I99" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L99" s="12"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -5745,9 +6375,15 @@
         <v>413</v>
       </c>
       <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="5"/>
+      <c r="I100" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L100" s="12"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -5780,9 +6416,15 @@
         <v>417</v>
       </c>
       <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="5"/>
+      <c r="I101" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L101" s="12"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -5815,11 +6457,17 @@
         <v>421</v>
       </c>
       <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="5"/>
+      <c r="I102" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L102" s="12" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -5852,11 +6500,17 @@
         <v>425</v>
       </c>
       <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="5"/>
+      <c r="I103" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L103" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -5889,11 +6543,17 @@
         <v>428</v>
       </c>
       <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="5"/>
+      <c r="I104" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L104" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -5926,9 +6586,15 @@
         <v>432</v>
       </c>
       <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="5"/>
+      <c r="I105" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L105" s="12"/>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -5961,11 +6627,17 @@
         <v>436</v>
       </c>
       <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="5"/>
+      <c r="I106" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L106" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -5998,11 +6670,17 @@
         <v>439</v>
       </c>
       <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="5"/>
+      <c r="I107" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L107" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -6035,9 +6713,15 @@
         <v>443</v>
       </c>
       <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="5"/>
+      <c r="I108" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L108" s="12"/>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -6070,11 +6754,17 @@
         <v>447</v>
       </c>
       <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="5"/>
+      <c r="I109" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L109" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -6107,11 +6797,17 @@
         <v>451</v>
       </c>
       <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="5"/>
+      <c r="I110" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L110" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -6144,11 +6840,17 @@
         <v>455</v>
       </c>
       <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="5"/>
+      <c r="I111" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L111" s="12" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -6181,9 +6883,15 @@
         <v>459</v>
       </c>
       <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="5"/>
+      <c r="I112" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L112" s="12"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -6216,9 +6924,15 @@
         <v>463</v>
       </c>
       <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="5"/>
+      <c r="I113" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L113" s="14"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -6251,11 +6965,17 @@
         <v>467</v>
       </c>
       <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="5"/>
+      <c r="I114" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L114" s="12" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
@@ -6288,11 +7008,17 @@
         <v>471</v>
       </c>
       <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="5"/>
+      <c r="I115" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L115" s="12" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -6325,9 +7051,15 @@
         <v>475</v>
       </c>
       <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="5"/>
+      <c r="I116" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L116" s="12"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -6360,9 +7092,15 @@
         <v>479</v>
       </c>
       <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="5"/>
+      <c r="I117" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L117" s="14"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -6395,9 +7133,15 @@
         <v>483</v>
       </c>
       <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="5"/>
+      <c r="I118" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L118" s="12"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -6430,11 +7174,17 @@
         <v>487</v>
       </c>
       <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="5"/>
+      <c r="I119" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L119" s="12" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -6467,11 +7217,17 @@
         <v>490</v>
       </c>
       <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="5"/>
+      <c r="I120" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L120" s="12" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -6504,9 +7260,15 @@
         <v>494</v>
       </c>
       <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="5"/>
+      <c r="I121" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L121" s="12"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -6539,9 +7301,15 @@
         <v>498</v>
       </c>
       <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="5"/>
+      <c r="I122" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L122" s="12"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -6574,9 +7342,15 @@
         <v>502</v>
       </c>
       <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="5"/>
+      <c r="I123" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L123" s="12"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
@@ -6609,9 +7383,15 @@
         <v>506</v>
       </c>
       <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="5"/>
+      <c r="I124" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L124" s="12"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -6644,11 +7424,17 @@
         <v>510</v>
       </c>
       <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="5"/>
+      <c r="I125" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="L125" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -6681,11 +7467,17 @@
         <v>514</v>
       </c>
       <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="5"/>
+      <c r="I126" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L126" s="12" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -6718,9 +7510,15 @@
         <v>518</v>
       </c>
       <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="5"/>
+      <c r="I127" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L127" s="12"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
@@ -6753,11 +7551,17 @@
         <v>522</v>
       </c>
       <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="5"/>
+      <c r="I128" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="L128" s="12" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -6790,9 +7594,15 @@
         <v>526</v>
       </c>
       <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="5"/>
+      <c r="I129" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L129" s="12"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -6825,9 +7635,15 @@
         <v>530</v>
       </c>
       <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="5"/>
+      <c r="I130" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L130" s="12"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -6860,9 +7676,15 @@
         <v>534</v>
       </c>
       <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="5"/>
+      <c r="I131" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="L131" s="12"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
